--- a/Trials.xlsx
+++ b/Trials.xlsx
@@ -8,19 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gesch\Documents\LocalStorage\phidget_work\isoclamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92039B3-0415-4C25-8126-F0F3F91188AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF4D3D5-A19F-40D6-A239-905055E2EA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Practice" sheetId="2" r:id="rId1"/>
+    <sheet name="Baseline" sheetId="3" r:id="rId2"/>
+    <sheet name="Trials" sheetId="1" r:id="rId3"/>
+    <sheet name="Post" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="6">
   <si>
     <t>trial_num</t>
   </si>
@@ -29,9 +46,6 @@
   </si>
   <si>
     <t>target_pos</t>
-  </si>
-  <si>
-    <t>cursor_rot</t>
   </si>
   <si>
     <t>target_amp</t>
@@ -47,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +74,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,15 +109,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -401,24 +418,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C66E4B2-DF76-47D5-93FD-4DE16456C466}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A12" sqref="A12:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,413 +449,1832 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>90</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>70</v>
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>110</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>90</v>
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>70</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>90</v>
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>70</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>90</v>
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>110</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1">
-        <v>8</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>110</v>
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>90</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>110</v>
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>70</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>70</v>
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>90</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>70</v>
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>110</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>90</v>
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>70</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1">
-        <v>8</v>
-      </c>
-      <c r="F11" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>70</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>90</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>8</v>
-      </c>
-      <c r="F13" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>90</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
-        <v>110</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1">
-        <v>90</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>8</v>
-      </c>
-      <c r="F16" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1">
-        <v>110</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>8</v>
-      </c>
-      <c r="F17" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1">
-        <v>110</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1">
-        <v>70</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>8</v>
-      </c>
-      <c r="F19" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="1">
-        <v>90</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>8</v>
-      </c>
-      <c r="F20" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="1">
-        <v>90</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="C12"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="C13"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="C14"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="C15"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="C16"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="C17"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="C18"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="C19"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768FA0D7-6A8C-4518-AFC7-99CE1A807FED}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>120</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>120</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>80</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>120</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>80</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>120</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>120</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>120</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>80</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>120</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>80</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>120</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>120</v>
+      </c>
+      <c r="D22" s="1">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>80</v>
+      </c>
+      <c r="D24" s="1">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>60</v>
+      </c>
+      <c r="D26" s="1">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>80</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>120</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>80</v>
+      </c>
+      <c r="D31" s="1">
+        <v>8</v>
+      </c>
+      <c r="E31" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>60</v>
+      </c>
+      <c r="D32" s="1">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>120</v>
+      </c>
+      <c r="D33" s="1">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>60</v>
+      </c>
+      <c r="D34" s="1">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35" s="1">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>80</v>
+      </c>
+      <c r="D36" s="1">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>120</v>
+      </c>
+      <c r="D37" s="1">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>60</v>
+      </c>
+      <c r="D38" s="1">
+        <v>8</v>
+      </c>
+      <c r="E38" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39" s="1">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>80</v>
+      </c>
+      <c r="D40" s="1">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>120</v>
+      </c>
+      <c r="D41" s="1">
+        <v>8</v>
+      </c>
+      <c r="E41" s="1">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715819F6-379F-48A1-9502-20E8501DC9D3}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>120</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>120</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>80</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>120</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>80</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>120</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419BC218-178B-46BA-B0BE-1D446A31C86A}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>110</v>
+      </c>
+      <c r="B1">
+        <f t="shared" ref="B1:B6" ca="1" si="0">RAND()</f>
+        <v>0.16986873513042711</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>90</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.5218675531853703E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10308567480815145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>110</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.77066076634903147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30255839895275527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15874272484641916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <f ca="1">RAND()</f>
+        <v>0.52335651049472764</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <f ca="1">RAND()</f>
+        <v>0.22645764927696244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>80</v>
+      </c>
+      <c r="B11">
+        <f ca="1">RAND()</f>
+        <v>0.93540661744677478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>120</v>
+      </c>
+      <c r="B12">
+        <f ca="1">RAND()</f>
+        <v>0.79491488665267296</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:B12">
+    <sortCondition ref="B9:B12"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Trials.xlsx
+++ b/Trials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Practice"/>
@@ -43,19 +43,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -91,7 +85,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -105,22 +99,10 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -427,201 +409,201 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="7">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>90</v>
       </c>
-      <c r="D2" s="7">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D2" s="1">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="7">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>110</v>
       </c>
-      <c r="D3" s="7">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="7">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>70</v>
       </c>
-      <c r="D4" s="7">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="7">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>70</v>
       </c>
-      <c r="D5" s="7">
-        <v>8</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>110</v>
       </c>
-      <c r="D6" s="7">
-        <v>8</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>90</v>
       </c>
-      <c r="D7" s="7">
-        <v>8</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="7">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>70</v>
       </c>
-      <c r="D8" s="7">
-        <v>8</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="1">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>90</v>
       </c>
-      <c r="D9" s="7">
-        <v>8</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="7">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>110</v>
       </c>
-      <c r="D10" s="7">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="7">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1">
         <v>70</v>
       </c>
-      <c r="D11" s="7">
-        <v>8</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="1">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -641,367 +623,367 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="7">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>120</v>
       </c>
-      <c r="D2" s="7">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D2" s="1">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="7">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>60</v>
       </c>
-      <c r="D3" s="7">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="7">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>80</v>
       </c>
-      <c r="D4" s="7">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="7">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>100</v>
       </c>
-      <c r="D5" s="7">
-        <v>8</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>60</v>
       </c>
-      <c r="D6" s="7">
-        <v>8</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>80</v>
       </c>
-      <c r="D7" s="7">
-        <v>8</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="7">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>120</v>
       </c>
-      <c r="D8" s="7">
-        <v>8</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="1">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>100</v>
       </c>
-      <c r="D9" s="7">
-        <v>8</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="7">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>100</v>
       </c>
-      <c r="D10" s="7">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="7">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1">
         <v>80</v>
       </c>
-      <c r="D11" s="7">
-        <v>8</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="1">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="7">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1">
         <v>60</v>
       </c>
-      <c r="D12" s="7">
-        <v>8</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="7">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1">
         <v>120</v>
       </c>
-      <c r="D13" s="7">
-        <v>8</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13" s="1">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="7">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1">
         <v>60</v>
       </c>
-      <c r="D14" s="7">
-        <v>8</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="1">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="7">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1">
         <v>100</v>
       </c>
-      <c r="D15" s="7">
-        <v>8</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="7">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1">
         <v>80</v>
       </c>
-      <c r="D16" s="7">
-        <v>8</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="1">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="7">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1">
         <v>120</v>
       </c>
-      <c r="D17" s="7">
-        <v>8</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="1">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="7">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="1">
         <v>60</v>
       </c>
-      <c r="D18" s="7">
-        <v>8</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="1">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="7">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="1">
         <v>100</v>
       </c>
-      <c r="D19" s="7">
-        <v>8</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="D19" s="1">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="7">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="1">
         <v>80</v>
       </c>
-      <c r="D20" s="7">
-        <v>8</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="7">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="1">
         <v>120</v>
       </c>
-      <c r="D21" s="7">
-        <v>8</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="D21" s="1">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1017,711 +999,711 @@
   </sheetPr>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="15">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="15">
-      <c r="A2" s="7">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>120</v>
       </c>
-      <c r="D2" s="7">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D2" s="1">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="15">
-      <c r="A3" s="7">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>60</v>
       </c>
-      <c r="D3" s="7">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="15">
-      <c r="A4" s="7">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>80</v>
       </c>
-      <c r="D4" s="7">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="15">
-      <c r="A5" s="7">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>100</v>
       </c>
-      <c r="D5" s="7">
-        <v>8</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="15">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>60</v>
       </c>
-      <c r="D6" s="7">
-        <v>8</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="15">
-      <c r="A7" s="7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>80</v>
       </c>
-      <c r="D7" s="7">
-        <v>8</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="15">
-      <c r="A8" s="7">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>120</v>
       </c>
-      <c r="D8" s="7">
-        <v>8</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="1">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="15">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>100</v>
       </c>
-      <c r="D9" s="7">
-        <v>8</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="15">
-      <c r="A10" s="7">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>100</v>
       </c>
-      <c r="D10" s="7">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="15">
-      <c r="A11" s="7">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1">
         <v>80</v>
       </c>
-      <c r="D11" s="7">
-        <v>8</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="1">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="15">
-      <c r="A12" s="7">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1">
         <v>60</v>
       </c>
-      <c r="D12" s="7">
-        <v>8</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="15">
-      <c r="A13" s="7">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1">
         <v>120</v>
       </c>
-      <c r="D13" s="7">
-        <v>8</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13" s="1">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="15">
-      <c r="A14" s="7">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1">
         <v>60</v>
       </c>
-      <c r="D14" s="7">
-        <v>8</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="1">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="15">
-      <c r="A15" s="7">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1">
         <v>100</v>
       </c>
-      <c r="D15" s="7">
-        <v>8</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="15">
-      <c r="A16" s="7">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1">
         <v>80</v>
       </c>
-      <c r="D16" s="7">
-        <v>8</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="1">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="15">
-      <c r="A17" s="7">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1">
         <v>120</v>
       </c>
-      <c r="D17" s="7">
-        <v>8</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="1">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="15">
-      <c r="A18" s="7">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="1">
         <v>60</v>
       </c>
-      <c r="D18" s="7">
-        <v>8</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="1">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="15">
-      <c r="A19" s="7">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="1">
         <v>100</v>
       </c>
-      <c r="D19" s="7">
-        <v>8</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="D19" s="1">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="15">
-      <c r="A20" s="7">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="1">
         <v>80</v>
       </c>
-      <c r="D20" s="7">
-        <v>8</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="15">
-      <c r="A21" s="7">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="1">
         <v>120</v>
       </c>
-      <c r="D21" s="7">
-        <v>8</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="D21" s="1">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="15">
-      <c r="A22" s="7">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="1">
         <v>120</v>
       </c>
-      <c r="D22" s="7">
-        <v>8</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="D22" s="1">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="15">
-      <c r="A23" s="7">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="1">
         <v>60</v>
       </c>
-      <c r="D23" s="7">
-        <v>8</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="D23" s="1">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="15">
-      <c r="A24" s="7">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="1">
         <v>80</v>
       </c>
-      <c r="D24" s="7">
-        <v>8</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="D24" s="1">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="15">
-      <c r="A25" s="7">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="1">
         <v>100</v>
       </c>
-      <c r="D25" s="7">
-        <v>8</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="D25" s="1">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="15">
-      <c r="A26" s="7">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="1">
         <v>60</v>
       </c>
-      <c r="D26" s="7">
-        <v>8</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="D26" s="1">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="15">
-      <c r="A27" s="7">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="1">
         <v>80</v>
       </c>
-      <c r="D27" s="7">
-        <v>8</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="D27" s="1">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="15">
-      <c r="A28" s="7">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="1">
         <v>120</v>
       </c>
-      <c r="D28" s="7">
-        <v>8</v>
-      </c>
-      <c r="E28" s="7">
+      <c r="D28" s="1">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="15">
-      <c r="A29" s="7">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="1">
         <v>100</v>
       </c>
-      <c r="D29" s="7">
-        <v>8</v>
-      </c>
-      <c r="E29" s="7">
+      <c r="D29" s="1">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="15">
-      <c r="A30" s="7">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="1">
         <v>100</v>
       </c>
-      <c r="D30" s="7">
-        <v>8</v>
-      </c>
-      <c r="E30" s="7">
+      <c r="D30" s="1">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="15">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="1">
         <v>80</v>
       </c>
-      <c r="D31" s="7">
-        <v>8</v>
-      </c>
-      <c r="E31" s="7">
+      <c r="D31" s="1">
+        <v>8</v>
+      </c>
+      <c r="E31" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="15">
-      <c r="A32" s="7">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="1">
         <v>60</v>
       </c>
-      <c r="D32" s="7">
-        <v>8</v>
-      </c>
-      <c r="E32" s="7">
+      <c r="D32" s="1">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="15">
-      <c r="A33" s="7">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="1">
         <v>120</v>
       </c>
-      <c r="D33" s="7">
-        <v>8</v>
-      </c>
-      <c r="E33" s="7">
+      <c r="D33" s="1">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="15">
-      <c r="A34" s="7">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="1">
         <v>60</v>
       </c>
-      <c r="D34" s="7">
-        <v>8</v>
-      </c>
-      <c r="E34" s="7">
+      <c r="D34" s="1">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="15">
-      <c r="A35" s="7">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="1">
         <v>100</v>
       </c>
-      <c r="D35" s="7">
-        <v>8</v>
-      </c>
-      <c r="E35" s="7">
+      <c r="D35" s="1">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="15">
-      <c r="A36" s="7">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="1">
         <v>80</v>
       </c>
-      <c r="D36" s="7">
-        <v>8</v>
-      </c>
-      <c r="E36" s="7">
+      <c r="D36" s="1">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="15">
-      <c r="A37" s="7">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="1">
         <v>120</v>
       </c>
-      <c r="D37" s="7">
-        <v>8</v>
-      </c>
-      <c r="E37" s="7">
+      <c r="D37" s="1">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="15">
-      <c r="A38" s="7">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="1">
         <v>60</v>
       </c>
-      <c r="D38" s="7">
-        <v>8</v>
-      </c>
-      <c r="E38" s="7">
+      <c r="D38" s="1">
+        <v>8</v>
+      </c>
+      <c r="E38" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="15">
-      <c r="A39" s="7">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="1">
         <v>100</v>
       </c>
-      <c r="D39" s="7">
-        <v>8</v>
-      </c>
-      <c r="E39" s="7">
+      <c r="D39" s="1">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="15">
-      <c r="A40" s="7">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="1">
         <v>80</v>
       </c>
-      <c r="D40" s="7">
-        <v>8</v>
-      </c>
-      <c r="E40" s="7">
+      <c r="D40" s="1">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="15">
-      <c r="A41" s="7">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="1">
         <v>120</v>
       </c>
-      <c r="D41" s="7">
-        <v>8</v>
-      </c>
-      <c r="E41" s="7">
+      <c r="D41" s="1">
+        <v>8</v>
+      </c>
+      <c r="E41" s="1">
         <v>30</v>
       </c>
     </row>
@@ -1741,367 +1723,367 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="7">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>120</v>
       </c>
-      <c r="D2" s="7">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D2" s="1">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="7">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>60</v>
       </c>
-      <c r="D3" s="7">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="7">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>80</v>
       </c>
-      <c r="D4" s="7">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="7">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>100</v>
       </c>
-      <c r="D5" s="7">
-        <v>8</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>60</v>
       </c>
-      <c r="D6" s="7">
-        <v>8</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>80</v>
       </c>
-      <c r="D7" s="7">
-        <v>8</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="7">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>120</v>
       </c>
-      <c r="D8" s="7">
-        <v>8</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="1">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>100</v>
       </c>
-      <c r="D9" s="7">
-        <v>8</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="7">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>100</v>
       </c>
-      <c r="D10" s="7">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="7">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1">
         <v>80</v>
       </c>
-      <c r="D11" s="7">
-        <v>8</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="1">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="7">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1">
         <v>60</v>
       </c>
-      <c r="D12" s="7">
-        <v>8</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="7">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1">
         <v>120</v>
       </c>
-      <c r="D13" s="7">
-        <v>8</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13" s="1">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="7">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1">
         <v>60</v>
       </c>
-      <c r="D14" s="7">
-        <v>8</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="1">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="7">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1">
         <v>100</v>
       </c>
-      <c r="D15" s="7">
-        <v>8</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="7">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1">
         <v>80</v>
       </c>
-      <c r="D16" s="7">
-        <v>8</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="1">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="7">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1">
         <v>120</v>
       </c>
-      <c r="D17" s="7">
-        <v>8</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="1">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="7">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="1">
         <v>60</v>
       </c>
-      <c r="D18" s="7">
-        <v>8</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="1">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="7">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="1">
         <v>100</v>
       </c>
-      <c r="D19" s="7">
-        <v>8</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="D19" s="1">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="7">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="1">
         <v>80</v>
       </c>
-      <c r="D20" s="7">
-        <v>8</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="7">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="1">
         <v>120</v>
       </c>
-      <c r="D21" s="7">
-        <v>8</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="D21" s="1">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2121,8 +2103,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -2173,13 +2155,13 @@
         <f>RAND()</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1">

--- a/Trials.xlsx
+++ b/Trials.xlsx
@@ -1,37 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gesch\Documents\LocalStorage\phidget_work\isoclamp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5F3229-95C5-4BD4-905B-08E636B3E19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Practice" sheetId="1" r:id="rId1"/>
-    <sheet name="Baseline" sheetId="2" r:id="rId2"/>
-    <sheet name="Trials" sheetId="3" r:id="rId3"/>
-    <sheet name="Post" sheetId="4" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="Practice"/>
+    <sheet r:id="rId2" sheetId="2" name="Baseline"/>
+    <sheet r:id="rId3" sheetId="3" name="Trials"/>
+    <sheet r:id="rId4" sheetId="4" name="Post"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -59,7 +40,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,26 +84,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="5">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -132,10 +117,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -173,71 +158,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -265,7 +250,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -288,11 +273,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -301,13 +286,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -317,7 +302,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -326,7 +311,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -335,7 +320,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -343,10 +328,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -411,28 +396,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -445,11 +430,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
@@ -462,11 +447,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1">
@@ -479,11 +464,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
@@ -496,11 +481,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
@@ -513,11 +498,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
@@ -530,11 +515,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
@@ -547,11 +532,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
@@ -564,11 +549,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1">
@@ -581,11 +566,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
@@ -598,11 +583,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1">
@@ -621,28 +606,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -655,11 +640,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
@@ -672,11 +657,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1">
@@ -689,11 +674,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
@@ -706,11 +691,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
@@ -723,11 +708,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
@@ -740,11 +725,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
@@ -757,11 +742,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
@@ -774,11 +759,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1">
@@ -791,11 +776,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
@@ -808,11 +793,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1">
@@ -824,66 +809,6 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -891,28 +816,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -925,11 +850,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
@@ -942,11 +867,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1">
@@ -959,11 +884,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
@@ -976,11 +901,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
@@ -993,11 +918,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
@@ -1010,11 +935,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
@@ -1027,11 +952,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
@@ -1044,11 +969,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1">
@@ -1061,11 +986,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
@@ -1078,11 +1003,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1">
@@ -1095,11 +1020,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1">
@@ -1112,11 +1037,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1">
@@ -1129,11 +1054,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1">
@@ -1146,11 +1071,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1">
@@ -1163,11 +1088,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1">
@@ -1180,11 +1105,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1">
@@ -1197,11 +1122,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="1">
@@ -1214,11 +1139,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="1">
@@ -1231,11 +1156,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="1">
@@ -1248,11 +1173,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="1">
@@ -1264,126 +1189,6 @@
       <c r="E21" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1391,28 +1196,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1425,11 +1230,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
@@ -1442,11 +1247,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1">
@@ -1459,11 +1264,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
@@ -1476,11 +1281,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
@@ -1493,11 +1298,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
@@ -1510,11 +1315,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
@@ -1527,11 +1332,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
@@ -1544,11 +1349,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1">
@@ -1561,11 +1366,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
@@ -1578,11 +1383,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1">
@@ -1594,66 +1399,6 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Trials.xlsx
+++ b/Trials.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gesch\Documents\LocalStorage\Experiment_Codes\Sensorimotor_Adaptation\wrist_rotation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA03332-634F-403F-8D24-B1D11DEE7F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Practice"/>
-    <sheet r:id="rId2" sheetId="2" name="Baseline"/>
-    <sheet r:id="rId3" sheetId="3" name="Trials"/>
-    <sheet r:id="rId4" sheetId="4" name="Post"/>
+    <sheet name="Practice" sheetId="1" r:id="rId1"/>
+    <sheet name="Baseline" sheetId="2" r:id="rId2"/>
+    <sheet name="Trials" sheetId="3" r:id="rId3"/>
+    <sheet name="Post" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="6">
   <si>
     <t>trial_num</t>
   </si>
@@ -40,8 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,29 +89,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -117,10 +119,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -158,71 +160,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -250,7 +252,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -273,11 +275,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -286,13 +288,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -302,7 +304,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -311,7 +313,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -320,7 +322,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -328,10 +330,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -396,207 +398,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="4" width="14.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+      <c r="B2" s="1">
+        <v>90</v>
       </c>
       <c r="C2" s="1">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+      <c r="B3" s="1">
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
+      <c r="B4" s="1">
+        <v>180</v>
       </c>
       <c r="C4" s="1">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
+      <c r="B5" s="1">
+        <v>45</v>
       </c>
       <c r="C5" s="1">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
+      <c r="B6" s="1">
+        <v>135</v>
       </c>
       <c r="C6" s="1">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
+      <c r="B7" s="1">
+        <v>90</v>
       </c>
       <c r="C7" s="1">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
+      <c r="B8" s="1">
+        <v>110</v>
       </c>
       <c r="C8" s="1">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
+      <c r="B9" s="1">
+        <v>70</v>
       </c>
       <c r="C9" s="1">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
+      <c r="B10" s="1">
+        <v>80</v>
       </c>
       <c r="C10" s="1">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
+      <c r="B11" s="1">
+        <v>100</v>
       </c>
       <c r="C11" s="1">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -606,207 +573,312 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="4" width="14.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+      <c r="B2" s="1">
+        <v>120</v>
       </c>
       <c r="C2" s="1">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+      <c r="B3" s="1">
+        <v>60</v>
       </c>
       <c r="C3" s="1">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
+      <c r="B4" s="1">
+        <v>80</v>
       </c>
       <c r="C4" s="1">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
+      <c r="B5" s="1">
+        <v>100</v>
       </c>
       <c r="C5" s="1">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
+      <c r="B6" s="1">
+        <v>60</v>
       </c>
       <c r="C6" s="1">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
+      <c r="B7" s="1">
+        <v>80</v>
       </c>
       <c r="C7" s="1">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
+      <c r="B8" s="1">
+        <v>120</v>
       </c>
       <c r="C8" s="1">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
+      <c r="B9" s="1">
+        <v>100</v>
       </c>
       <c r="C9" s="1">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
+      <c r="B10" s="1">
+        <v>100</v>
       </c>
       <c r="C10" s="1">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
+      <c r="B11" s="1">
+        <v>80</v>
       </c>
       <c r="C11" s="1">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>120</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>80</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>100</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1">
+        <v>120</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1">
+        <v>100</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1">
+        <v>100</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1">
+        <v>80</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
         <v>0</v>
       </c>
     </row>
@@ -816,379 +888,880 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="4" width="14.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="15">
+    <row r="1" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="15">
+    <row r="2" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+      <c r="B2" s="1">
+        <v>120</v>
       </c>
       <c r="C2" s="1">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+      <c r="B3" s="1">
+        <v>60</v>
       </c>
       <c r="C3" s="1">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
+      <c r="B4" s="1">
+        <v>80</v>
       </c>
       <c r="C4" s="1">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
+      <c r="B5" s="1">
+        <v>100</v>
       </c>
       <c r="C5" s="1">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
+      <c r="B6" s="1">
+        <v>60</v>
       </c>
       <c r="C6" s="1">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
+      <c r="B7" s="1">
+        <v>80</v>
       </c>
       <c r="C7" s="1">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
+      <c r="B8" s="1">
+        <v>120</v>
       </c>
       <c r="C8" s="1">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
+      <c r="B9" s="1">
+        <v>100</v>
       </c>
       <c r="C9" s="1">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
+      <c r="B10" s="1">
+        <v>100</v>
       </c>
       <c r="C10" s="1">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
+      <c r="B11" s="1">
+        <v>80</v>
       </c>
       <c r="C11" s="1">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
+      <c r="B12" s="1">
+        <v>60</v>
       </c>
       <c r="C12" s="1">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
+      <c r="B13" s="1">
+        <v>120</v>
       </c>
       <c r="C13" s="1">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
+      <c r="B14" s="1">
+        <v>60</v>
       </c>
       <c r="C14" s="1">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
+      <c r="B15" s="1">
+        <v>100</v>
       </c>
       <c r="C15" s="1">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
+      <c r="B16" s="1">
+        <v>80</v>
       </c>
       <c r="C16" s="1">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
+      <c r="B17" s="1">
+        <v>120</v>
       </c>
       <c r="C17" s="1">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
+      <c r="B18" s="1">
+        <v>60</v>
       </c>
       <c r="C18" s="1">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
       </c>
-      <c r="E18" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="15">
+    </row>
+    <row r="19" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
+      <c r="B19" s="1">
+        <v>100</v>
       </c>
       <c r="C19" s="1">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
+      <c r="B20" s="1">
+        <v>80</v>
       </c>
       <c r="C20" s="1">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
+      <c r="B21" s="1">
+        <v>120</v>
       </c>
       <c r="C21" s="1">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>30</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>60</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>120</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>100</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>80</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>120</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>60</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>100</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>80</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>120</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>80</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>60</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>120</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>60</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>100</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>80</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>120</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>60</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>100</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>80</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>120</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>100</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>80</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>60</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>120</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>100</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>80</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>60</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>120</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3</v>
+      </c>
+      <c r="D51" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>100</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>80</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>120</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>100</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>80</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>60</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>120</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>100</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>80</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>60</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1196,28 +1769,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1230,11 +1803,11 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
@@ -1247,11 +1820,11 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1">
@@ -1264,11 +1837,11 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
@@ -1281,11 +1854,11 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
@@ -1298,11 +1871,11 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
@@ -1315,11 +1888,11 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
@@ -1332,11 +1905,11 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
@@ -1349,11 +1922,11 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1">
@@ -1366,11 +1939,11 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
@@ -1383,11 +1956,11 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1">
@@ -1397,6 +1970,176 @@
         <v>3</v>
       </c>
       <c r="E11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>120</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>80</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>80</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>120</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>100</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>100</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>80</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
         <v>0</v>
       </c>
     </row>
